--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive - VNU-HCMUS\Desktop\Capstone_ReactJS_Group10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9322193-CE36-4E5F-AAC7-6E67B4C3E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3FE61B-902F-4EB6-A182-7190BCCA34F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -92,27 +92,12 @@
     <t xml:space="preserve">      Login popup</t>
   </si>
   <si>
-    <t>19/08/2022</t>
-  </si>
-  <si>
     <t>Lựu</t>
   </si>
   <si>
-    <t>23/08/2022</t>
-  </si>
-  <si>
     <t>Vũ</t>
   </si>
   <si>
-    <t>24/08/2022</t>
-  </si>
-  <si>
-    <t>21/08/2022</t>
-  </si>
-  <si>
-    <t>22/08/2022</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -164,7 +149,10 @@
     <t>Dựa trên Code base ở lớp học</t>
   </si>
   <si>
-    <t>Dựa trên Code base ở lớp học; Carousel pause lại khi hover lên phần nội dung của nó</t>
+    <t>5/1/2023</t>
+  </si>
+  <si>
+    <t>Dựa trên Code base ở lớp học; Carousel pause lại khi hover lên phần nội dung của nó; Phần Css chưa giống Figma lắm</t>
   </si>
 </sst>
 </file>
@@ -668,7 +656,7 @@
   <dimension ref="A1:I987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -716,23 +704,23 @@
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="9"/>
       <c r="I2" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -860,17 +848,17 @@
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="20">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -879,82 +867,80 @@
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="20">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="20">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="20">
         <v>0.9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="20">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -963,19 +949,17 @@
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="20">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -987,37 +971,37 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="20"/>
       <c r="E14" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
